--- a/test.xlsx
+++ b/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="76">
   <si>
     <t>事件id</t>
   </si>
@@ -43,67 +43,166 @@
     <t>事件概述</t>
   </si>
   <si>
-    <t>8319221359746</t>
+    <t>5867567942127</t>
   </si>
   <si>
     <t>智慧社区</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>风险隐患-消防安全</t>
+  </si>
+  <si>
+    <t>清理废物物品</t>
+  </si>
+  <si>
+    <t>孙凤娟</t>
+  </si>
+  <si>
+    <t>13753209306</t>
+  </si>
+  <si>
+    <t>山西省大同市城区永泰南路辅路在云沁园附近</t>
+  </si>
+  <si>
+    <t>清理废弃物品 保障消防安全</t>
+  </si>
+  <si>
+    <t>1391880597623</t>
+  </si>
+  <si>
     <t>60</t>
   </si>
   <si>
     <t>其他事件</t>
   </si>
   <si>
-    <t>清理人行道积雪</t>
-  </si>
-  <si>
-    <t>刘香荣</t>
-  </si>
-  <si>
-    <t>13934815055</t>
-  </si>
-  <si>
-    <t>中国山西省大同市平城区文瀛湖街道西京街</t>
-  </si>
-  <si>
-    <t>9141766026796</t>
-  </si>
-  <si>
-    <t>下雪了，清扫积雪</t>
-  </si>
-  <si>
-    <t>刘红方</t>
-  </si>
-  <si>
-    <t>13835296157</t>
-  </si>
-  <si>
-    <t>延兴路与开源街交汇处东北华阳·日月城</t>
-  </si>
-  <si>
-    <t>巡查网格，发现小区物业的工作人员清扫路面积雪，使小区环境美化，地面干净。</t>
-  </si>
-  <si>
-    <t>9328868335593</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 我为群众办实事</t>
-  </si>
-  <si>
-    <t>张庚</t>
-  </si>
-  <si>
-    <t>13994386807</t>
-  </si>
-  <si>
-    <t>新建路同兴街小区同兴街小区32号楼</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2022年3月18日，同兴街第五网格员在巡查中，观察到同车便民市场的销售人员，为群众发放生鲜产品知识的宣传资料</t>
-  </si>
-  <si>
-    <t>4428507885458</t>
+    <t>对辖区门店检查消防器械</t>
+  </si>
+  <si>
+    <t>张守叶</t>
+  </si>
+  <si>
+    <t>18636286384</t>
+  </si>
+  <si>
+    <t>中国山西省大同市平城区鹿苑街道北苑路</t>
+  </si>
+  <si>
+    <t>检查消防器材</t>
+  </si>
+  <si>
+    <t>5718886185322</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>疫情防控-涉疫宣传</t>
+  </si>
+  <si>
+    <t>疫情防控海报张贴</t>
+  </si>
+  <si>
+    <t>侯雁峰</t>
+  </si>
+  <si>
+    <t>13935271653</t>
+  </si>
+  <si>
+    <t>中国山西省大同市平城区文瀛湖街道云山街辅路</t>
+  </si>
+  <si>
+    <t>工作人员为疫情防控张贴海报</t>
+  </si>
+  <si>
+    <t>4984214288286</t>
+  </si>
+  <si>
+    <t>疫情宣传</t>
+  </si>
+  <si>
+    <t>杜桃</t>
+  </si>
+  <si>
+    <t>15903420313</t>
+  </si>
+  <si>
+    <t>中国山西省大同市平城区新旺街道友谊街</t>
+  </si>
+  <si>
+    <t>明堂公园周边商铺入户宣传防疫</t>
+  </si>
+  <si>
+    <t>6085747293033</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>风险隐患-道路交通安全</t>
+  </si>
+  <si>
+    <t>清理马路积雪</t>
+  </si>
+  <si>
+    <t>周梅</t>
+  </si>
+  <si>
+    <t>13233136898</t>
+  </si>
+  <si>
+    <t>中国山西省大同市平城区永泰街道兴国寺街</t>
+  </si>
+  <si>
+    <t>3月18日，兴国寺社区网格员清理迎宾街道路积雪，及时清理，为居民畅通道路，方便居民出行，保护道路交通安全，</t>
+  </si>
+  <si>
+    <t>5333897355246</t>
+  </si>
+  <si>
+    <t>宣传海报</t>
+  </si>
+  <si>
+    <t>张宝月</t>
+  </si>
+  <si>
+    <t>15835215946</t>
+  </si>
+  <si>
+    <t>中国山西省大同市平城区清远街道花园里前街</t>
+  </si>
+  <si>
+    <t>减少聚餐约会，避免群体感染，科学洗手消毒，戴好口罩外出，切勿信谣传谣，官方通报为准</t>
+  </si>
+  <si>
+    <t>2863403139937</t>
+  </si>
+  <si>
+    <t>宣传</t>
+  </si>
+  <si>
+    <t>刘海玲</t>
+  </si>
+  <si>
+    <t>18635231981</t>
+  </si>
+  <si>
+    <t>勤开窗户通风，注意室内清洁</t>
+  </si>
+  <si>
+    <t>8422592992703</t>
+  </si>
+  <si>
+    <t>自行车乱放</t>
+  </si>
+  <si>
+    <t>自行车人行道上乱放，</t>
+  </si>
+  <si>
+    <t>5357854950854</t>
   </si>
   <si>
     <t>62</t>
@@ -112,143 +211,37 @@
     <t>疫情防控-涉疫排查</t>
   </si>
   <si>
-    <t>疫情防控</t>
-  </si>
-  <si>
-    <t>王占全</t>
-  </si>
-  <si>
-    <t>15835246501</t>
-  </si>
-  <si>
-    <t>中国山西省大同市平城区新旺街道南环路辅路</t>
-  </si>
-  <si>
-    <t>网格员上门排查疫情防控  ，并贴居家隔离封条</t>
-  </si>
-  <si>
-    <t>3046595916143</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>宣传工作-电信诈骗宣传</t>
-  </si>
-  <si>
-    <t>防电信诈骗宣传</t>
-  </si>
-  <si>
-    <t xml:space="preserve">赵平
-</t>
-  </si>
-  <si>
-    <t>13096588693</t>
-  </si>
-  <si>
-    <t>中国山西省大同市平城区开源街道延和路</t>
-  </si>
-  <si>
-    <t>告知居民不要轻易透露个人隐私，不要点击陌生人发来的链接或扫描对方发来的二维码等，一定要提高警惕，如有情况及时报警</t>
-  </si>
-  <si>
-    <t>5009284536273</t>
-  </si>
-  <si>
-    <t>食品安全检查</t>
-  </si>
-  <si>
-    <t>薛玉宝</t>
-  </si>
-  <si>
-    <t>13303529283</t>
-  </si>
-  <si>
-    <t>中国山西省大同市平城区御河街道G208(旧)</t>
-  </si>
-  <si>
-    <t>深入辖区内商铺检查食品安全，让村民买到放心食品。</t>
-  </si>
-  <si>
-    <t>7727216778465</t>
-  </si>
-  <si>
-    <t>清扫人行道路积雪</t>
-  </si>
-  <si>
-    <t>王瑜</t>
-  </si>
-  <si>
-    <t>13934770476</t>
-  </si>
-  <si>
-    <t>文盛街与109国道交叉口西古城佳园</t>
-  </si>
-  <si>
-    <t>扫雪</t>
-  </si>
-  <si>
-    <t>3223747503503</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>风险隐患-消防安全</t>
-  </si>
-  <si>
-    <t>消防应急灯</t>
-  </si>
-  <si>
-    <t>李晋阳</t>
-  </si>
-  <si>
-    <t>16603525566</t>
-  </si>
-  <si>
-    <t>中国山西省大同市平城区振华街道西环路</t>
-  </si>
-  <si>
-    <t>3-1-8层消防应急灯掉落</t>
-  </si>
-  <si>
-    <t>8435154697466</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>疫情防控-其他</t>
-  </si>
-  <si>
-    <t>肖璐</t>
-  </si>
-  <si>
-    <t>18939744082</t>
-  </si>
-  <si>
-    <t>云中路兴同里18号楼(天贵国际酒店西南)兴同里小区18号楼</t>
-  </si>
-  <si>
-    <t>带医务人员为居家隔离人员进行核酸检测</t>
-  </si>
-  <si>
-    <t>3124963430234</t>
-  </si>
-  <si>
-    <t>装修磁砖，垃圾</t>
-  </si>
-  <si>
-    <t>常云</t>
-  </si>
-  <si>
-    <t>13503522379</t>
-  </si>
-  <si>
-    <t>中国山西省大同市平城区开源街道南环西路辅路</t>
-  </si>
-  <si>
-    <t>龙湖园外围西南角磁砖乱堆，垃圾乱扔</t>
+    <t>核酸检测</t>
+  </si>
+  <si>
+    <t>冷晓梅</t>
+  </si>
+  <si>
+    <t>13935280196</t>
+  </si>
+  <si>
+    <t>迎泽街集贸商厦(暂停营业)</t>
+  </si>
+  <si>
+    <t>建设里社区与卫生院联合起来对外地返同人员上门二次做核酸</t>
+  </si>
+  <si>
+    <t>1810558016206</t>
+  </si>
+  <si>
+    <t>安全检查</t>
+  </si>
+  <si>
+    <t>李建斌</t>
+  </si>
+  <si>
+    <t>13546011527</t>
+  </si>
+  <si>
+    <t>中国山西省大同市平城区小南头街道御河东路</t>
+  </si>
+  <si>
+    <t>我村两委干部和网格员在村内驻村企业凤林涂料厂检查消防安全时发现该企业电线乱搭乱挂现象存在安全隐患，我村两委干部告知他电线不能乱搭乱挂，让他立即停止生产作业，找专业电工整理线路。</t>
   </si>
 </sst>
 </file>
@@ -641,244 +634,244 @@
         <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" t="s">
         <v>52</v>
       </c>
-      <c r="F8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G8" t="s">
-        <v>54</v>
-      </c>
-      <c r="H8" t="s">
-        <v>55</v>
-      </c>
       <c r="I8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s">
         <v>60</v>
       </c>
       <c r="F9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" t="s">
         <v>61</v>
-      </c>
-      <c r="G9" t="s">
-        <v>62</v>
-      </c>
-      <c r="H9" t="s">
-        <v>63</v>
-      </c>
-      <c r="I9" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" t="s">
         <v>66</v>
       </c>
-      <c r="D10" t="s">
+      <c r="G10" t="s">
         <v>67</v>
       </c>
-      <c r="E10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="H10" t="s">
         <v>68</v>
       </c>
-      <c r="G10" t="s">
+      <c r="I10" t="s">
         <v>69</v>
-      </c>
-      <c r="H10" t="s">
-        <v>70</v>
-      </c>
-      <c r="I10" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
@@ -890,19 +883,19 @@
         <v>12</v>
       </c>
       <c r="E11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" t="s">
         <v>73</v>
       </c>
-      <c r="F11" t="s">
+      <c r="H11" t="s">
         <v>74</v>
       </c>
-      <c r="G11" t="s">
+      <c r="I11" t="s">
         <v>75</v>
-      </c>
-      <c r="H11" t="s">
-        <v>76</v>
-      </c>
-      <c r="I11" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
